--- a/product-detail.xlsx
+++ b/product-detail.xlsx
@@ -4,61 +4,47 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13360" windowHeight="5840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>code</t>
   </si>
   <si>
-    <t>shortDescription</t>
-  </si>
-  <si>
-    <t>longDescription</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>stockReceived</t>
-  </si>
-  <si>
-    <t>registrar</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t>abc-efg</t>
-  </si>
-  <si>
-    <t>soumyak</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t>xyz</t>
-  </si>
-  <si>
-    <t>ppp</t>
-  </si>
-  <si>
-    <t>npr</t>
-  </si>
-  <si>
-    <t>fgt-tyy</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>buyUnitPrice</t>
+  </si>
+  <si>
+    <t>suggestedUnitPrice</t>
+  </si>
+  <si>
+    <t>saree</t>
+  </si>
+  <si>
+    <t>Red Blue Silk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fancy Violet </t>
+  </si>
+  <si>
+    <t>Rust Silk</t>
+  </si>
+  <si>
+    <t>Banarasi</t>
   </si>
 </sst>
 </file>
@@ -105,9 +91,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,41 +404,35 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -461,22 +440,17 @@
         <v>19090</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>88.66</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1500</v>
       </c>
       <c r="E2" s="1">
-        <v>43845</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
+        <f>D2+D2*0.25</f>
+        <v>1875</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -484,22 +458,17 @@
         <v>19091</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4546</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>300</v>
       </c>
       <c r="E3" s="1">
-        <v>43846</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+        <f t="shared" ref="E3:E5" si="0">D3+D3*0.25</f>
+        <v>375</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -507,22 +476,17 @@
         <v>19092</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2">
-        <v>6767</v>
+      <c r="D4" s="1">
+        <v>850</v>
       </c>
       <c r="E4" s="1">
-        <v>43847</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>1062.5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -530,184 +494,46 @@
         <v>19093</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2">
-        <v>825</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3000</v>
       </c>
       <c r="E5" s="1">
-        <v>43848</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>3750</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>19094</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>456</v>
-      </c>
-      <c r="E6" s="1">
-        <v>43849</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>19095</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2">
-        <v>5665</v>
-      </c>
-      <c r="E7" s="1">
-        <v>43850</v>
-      </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>19096</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8898</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43851</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>19097</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="2">
-        <v>888</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43852</v>
-      </c>
-      <c r="F9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>19098</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2">
-        <v>122</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43853</v>
-      </c>
-      <c r="F10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>19099</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43854</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>19100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4546</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43855</v>
-      </c>
-      <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>10</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/product-detail.xlsx
+++ b/product-detail.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -401,16 +400,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
@@ -418,7 +417,7 @@
     <col min="7" max="7" width="5.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -435,7 +434,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>19090</v>
       </c>
@@ -453,7 +452,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>19091</v>
       </c>
@@ -471,7 +470,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>19092</v>
       </c>
@@ -489,7 +488,7 @@
         <v>1062.5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>19093</v>
       </c>
@@ -507,33 +506,9 @@
         <v>3750</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/product-detail.xlsx
+++ b/product-detail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7305"/>
   </bookViews>
   <sheets>
     <sheet name="Inventory" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
     <t>thirtyPercentDiscount</t>
   </si>
   <si>
-    <t>Slate Linen</t>
+    <t xml:space="preserve">Tussar Ghicha (Red) </t>
   </si>
 </sst>
 </file>
@@ -388,21 +388,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,9 +430,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1000006</v>
+        <v>1000067</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -439,450 +441,450 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>950</v>
+        <v>3500</v>
       </c>
       <c r="E2" s="2">
-        <v>1700</v>
+        <v>7000</v>
       </c>
       <c r="F2">
         <f>E2-(0.15*E2)</f>
-        <v>1445</v>
+        <v>5950</v>
       </c>
       <c r="G2">
         <f>E2-(0.25*E2)</f>
-        <v>1275</v>
+        <v>5250</v>
       </c>
       <c r="H2" s="2">
         <f>E2-(0.3*E2)</f>
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
     </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
     </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
     </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
     </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
     </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
     </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
     </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
     </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
     </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
